--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,78 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pruthviraj</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:05:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pruthviraj</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:05:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pruthviraj</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:09:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>New pruthvi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:11:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pruthviraj</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>New bro</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:26:34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
